--- a/Unity/Assets/Config/Excel/Datas/Unit/Drop.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Drop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -25,9 +25,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>props</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
-    <t>map,NumericType,int</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -50,12 +44,6 @@
   </si>
   <si>
     <t>模型</t>
-  </si>
-  <si>
-    <t>属性类型</t>
-  </si>
-  <si>
-    <t>属性值</t>
   </si>
   <si>
     <t>交互转换类型</t>
@@ -468,28 +456,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -616,7 +586,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,34 +598,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,18 +710,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -769,12 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,163 +1053,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.2142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.0714285714286" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.0714285714286" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.07142857142857" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.0714285714286" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.07142857142857" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.8571428571429" style="1" customWidth="1"/>
-    <col min="13" max="16383" width="10.4107142857143" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="10.4107142857143" style="1"/>
+    <col min="5" max="5" width="14.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="16377" width="10.4107142857143" style="1" customWidth="1"/>
+    <col min="16378" max="16384" width="10.4107142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="12"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>5001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>50010001</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
         <v>92000001</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>5002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>50020001</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
         <v>92010001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
